--- a/pcb/BOM.xlsx
+++ b/pcb/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Bureau\PumaTX\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4C9AE7-0B1D-4889-8487-50BA3141F323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41370044-6FC0-43A1-9B02-7471EA3B14DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32910" yWindow="-1620" windowWidth="17295" windowHeight="9810" xr2:uid="{9A70F069-8BC4-4009-A421-22A59571B4DF}"/>
+    <workbookView minimized="1" xWindow="13530" yWindow="-14970" windowWidth="18900" windowHeight="11055" xr2:uid="{9A70F069-8BC4-4009-A421-22A59571B4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="MB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ref</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1 (40)</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/de/hirose-electric-co-ltd/U-FL-R-SMT-1-40/H125761CT-ND/8594840</t>
+  </si>
+  <si>
+    <t>max reflow temp (°C)</t>
   </si>
 </sst>
 </file>
@@ -406,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8F92D4-CC6C-4125-A369-48234F4C43FA}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +432,7 @@
     <col min="5" max="5" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +448,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -452,6 +467,26 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2044</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
